--- a/asets/TabelaGeralDadosCestadeCompras1.xlsx
+++ b/asets/TabelaGeralDadosCestadeCompras1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="195">
   <si>
     <t>NomeItem</t>
   </si>
@@ -460,6 +460,156 @@
   </si>
   <si>
     <t>preço venda atacado</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Itália</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Alemanha</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>gito</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Epirito santo</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Mato grosso do sul</t>
+  </si>
+  <si>
+    <t>Rio de janeiro</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Flórida</t>
+  </si>
+  <si>
+    <t>Alasca</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>Guarapari</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Feira de santana</t>
+  </si>
+  <si>
+    <t>São paulo</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Niterói</t>
+  </si>
+  <si>
+    <t>Manguinhos</t>
+  </si>
+  <si>
+    <t>Laranjeiras</t>
+  </si>
+  <si>
+    <t>Goiabeiras</t>
+  </si>
+  <si>
+    <t>Jardim marilandia</t>
+  </si>
+  <si>
+    <t>Barceçpma</t>
+  </si>
+  <si>
+    <t>Feu rosa</t>
+  </si>
+  <si>
+    <t>São pedro</t>
+  </si>
+  <si>
+    <t>São torquato</t>
+  </si>
+  <si>
+    <t>Dombosco</t>
+  </si>
+  <si>
+    <t>Colina de laranjeiras</t>
+  </si>
+  <si>
+    <t>Marilândia</t>
+  </si>
+  <si>
+    <t>Coqueiral de itapuã</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Id_pais</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>id_ESTADO</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_cidade</t>
   </si>
 </sst>
 </file>
@@ -873,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +1034,7 @@
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
@@ -2152,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2166,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2180,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2194,7 +2344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2208,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2222,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2236,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2248,6 +2398,224 @@
       </c>
       <c r="D103">
         <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/asets/TabelaGeralDadosCestadeCompras1.xlsx
+++ b/asets/TabelaGeralDadosCestadeCompras1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12564" windowHeight="5196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="214">
   <si>
     <t>NomeItem</t>
   </si>
@@ -610,6 +610,63 @@
   </si>
   <si>
     <t>id_cidade</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Logradouro</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Rua dos studantes</t>
+  </si>
+  <si>
+    <t>Ifes serra</t>
+  </si>
+  <si>
+    <t>Av central</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Av Fernando Ferrari</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Av teste</t>
+  </si>
+  <si>
+    <t>Rua Aquario Santos</t>
+  </si>
+  <si>
+    <t>Rua Absurda</t>
+  </si>
+  <si>
+    <t>Ifes vitoria</t>
+  </si>
+  <si>
+    <t>Rua terminal</t>
+  </si>
+  <si>
+    <t>Certurb</t>
+  </si>
+  <si>
+    <t>Rua juraci</t>
+  </si>
+  <si>
+    <t>Rua Herman Stern</t>
+  </si>
+  <si>
+    <t>Condominio</t>
   </si>
 </sst>
 </file>
@@ -1023,9 +1080,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2614,6 +2673,146 @@
       </c>
       <c r="D131" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>29123125</v>
+      </c>
+      <c r="B136" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136">
+        <v>661</v>
+      </c>
+      <c r="D136" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>29165000</v>
+      </c>
+      <c r="B137" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137">
+        <v>152</v>
+      </c>
+      <c r="D137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>29165001</v>
+      </c>
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138">
+        <v>122</v>
+      </c>
+      <c r="D138" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>29179450</v>
+      </c>
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>29666200</v>
+      </c>
+      <c r="B140" t="s">
+        <v>206</v>
+      </c>
+      <c r="C140">
+        <v>433</v>
+      </c>
+      <c r="D140" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>29584875</v>
+      </c>
+      <c r="B141" t="s">
+        <v>207</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>29665123</v>
+      </c>
+      <c r="B142" t="s">
+        <v>209</v>
+      </c>
+      <c r="C142">
+        <v>22</v>
+      </c>
+      <c r="D142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>29123332</v>
+      </c>
+      <c r="B143" t="s">
+        <v>211</v>
+      </c>
+      <c r="C143">
+        <v>212</v>
+      </c>
+      <c r="D143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>29166520</v>
+      </c>
+      <c r="B144" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144">
+        <v>371</v>
+      </c>
+      <c r="D144" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
